--- a/python/Excel学习/Excel学习.xlsx
+++ b/python/Excel学习/Excel学习.xlsx
@@ -1,48 +1,403 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12090" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="22">
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="微软雅黑"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="5"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
+  <fills count="35">
+    <fill>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0099ccff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <gradientFill type="linear">
+        <stop position="0">
+          <color rgb="00FFFFFF"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="0099ccff"/>
+        </stop>
+        <stop position="1">
+          <color rgb="00000000"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -50,27 +405,460 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" textRotation="45" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,50 +1143,723 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col width="20" customWidth="1" style="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="50" customHeight="1" s="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="E2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="K11">
+        <f>AVERAGE(K1:K10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>五年级</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>小江</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>六年级</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>小明</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>25</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>五年级</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>小江</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>25</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>六年级</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>